--- a/burndownChart.xlsx
+++ b/burndownChart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n9364901\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CowUser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Sprint Days Remaining</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Sprint 1 Burndown</t>
   </si>
   <si>
-    <t>ALSO DO A SPRINT 2 BURNDOWN AS WELL</t>
+    <t>Sprint 2 Burndown</t>
   </si>
 </sst>
 </file>
@@ -1146,15 +1146,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$3:$C$5</c:f>
+              <c:f>'Burn down chart'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3012,6 +3015,9 @@
       <c r="B7" s="1">
         <v>0</v>
       </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -3233,34 +3239,164 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>27</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>18</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>15</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>13</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>11</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
@@ -3363,12 +3499,13 @@
       <c r="D117" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
